--- a/update_instances/ig/ValueSet-vsSCT.xlsx
+++ b/update_instances/ig/ValueSet-vsSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:24:55+00:00</t>
+    <t>2024-03-27T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
